--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_plv_by_3d_spherical_pseudoinverse_sigma_0.3_lamda_1e-05.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_plv_by_3d_spherical_pseudoinverse_sigma_0.3_lamda_1e-05.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="pseudoinverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pseudoinverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="pseudoinverse_sr_0.4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -767,4 +769,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.56064498827845</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2416557699713545</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9056064498827844</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8968286260261321</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>84.04839142207112</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4300336006252716</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8404839142207112</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8316128404295297</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>89.79402936011556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2925206741667353</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8979402936011557</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8949097843259702</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>71.3661017828874</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9259749490224445</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7136610178288739</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6948512574995991</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>68.84151246983104</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7380398742776985</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6884151246983106</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6677903747070983</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>83.63610411854775</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4859467729538058</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8363610411854774</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8235432071957505</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>81.16168824989836</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4326222382485866</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8116168824989834</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8130913346843892</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>81.00606406629815</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4515384808823001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8100606406629816</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.805531582684384</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>80.74421059005701</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5141708769990753</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8074421059005701</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7883565944674117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.89691952352528</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3657682286536632</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8389691952352528</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8324725671027657</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77.02393619321967</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5815536616990964</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7702393619321967</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7572413628657568</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>69.46945907836573</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.778331404649604</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6946945907836574</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6830751840592391</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.39528023598821</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1459638273343444</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.943952802359882</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9414236209029827</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.60870768778277</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.08699125337395042</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9660870768778278</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9663511440467959</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.77286135693215</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1695155602423862</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9277286135693215</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9219982069066088</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>83.02172740825326</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4427084782066878</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8302172740825323</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8212718458602944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.59309336585957</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2342491816215139</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9159309336585956</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9159147587689869</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>82.57536829903373</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.435770556515187</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8257536829903372</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.825158029700243</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>90.06072716892015</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2376231893023942</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9006072716892014</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.897267645534306</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>74.12711182622687</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6041471291915513</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7412711182622687</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7285232599991027</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.44483083763701</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8562535528093577</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6244483083763701</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6092029985906555</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>80.59931314284725</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5903775220465225</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8059931314284725</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7925615251555406</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>77.14539053105996</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6280325253804524</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7714539053105997</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7522920027470403</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>85.78742030640403</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3451437868255501</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8578742030640404</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8539205444912448</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>80.56825751087813</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5263251723954454</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8056825751087813</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7909669384165511</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.74803415254458</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4174841542417805</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8274803415254457</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8293286585763013</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>68.18562444311803</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8549309112131596</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6818562444311802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6765735124976127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>73.09976729902507</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.020415805295731</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7309976729902508</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.695410621745</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>93.21585826867015</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1987969935522415</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9321585826867015</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9312900956194948</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>93.62901063157986</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1864144944333627</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9362901063157987</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9370084638845855</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90.0357269526553</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3260544987089816</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.900357269526553</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8839794927710779</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>81.72103564909732</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4974679649022153</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8172103564909732</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8079599032331829</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>